--- a/water_quality_prediction/output/raw_1.xlsx
+++ b/water_quality_prediction/output/raw_1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,74 +438,140 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20180101000000</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>가평</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>20180101010000</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>가평</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>20180507230000</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>가평</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
